--- a/data.xlsx
+++ b/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22325"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\franc\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\franc\Code\recits-de-vie\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEF67D50-7C3E-438B-911C-EA436AD5E200}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4559D98-5B5E-48C7-96EC-67DA72D48DE1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{10FA0B69-BD7D-42FA-920C-E219C30916A7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{10FA0B69-BD7D-42FA-920C-E219C30916A7}"/>
   </bookViews>
   <sheets>
     <sheet name="Seule" sheetId="1" r:id="rId1"/>
@@ -126,9 +126,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="166" formatCode="_ * #,##0.00_)\ &quot;$&quot;_ ;_ * \(#,##0.00\)\ &quot;$&quot;_ ;_ * &quot;-&quot;??_)\ &quot;$&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="168" formatCode="_ * #,##0.00_)\ _$_ ;_ * \(#,##0.00\)\ _$_ ;_ * &quot;-&quot;??_)\ _$_ ;_ @_ "/>
-    <numFmt numFmtId="171" formatCode="#,##0\ _$"/>
+    <numFmt numFmtId="44" formatCode="_ * #,##0.00_)\ &quot;$&quot;_ ;_ * \(#,##0.00\)\ &quot;$&quot;_ ;_ * &quot;-&quot;??_)\ &quot;$&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="164" formatCode="_ * #,##0.00_)\ _$_ ;_ * \(#,##0.00\)\ _$_ ;_ * &quot;-&quot;??_)\ _$_ ;_ @_ "/>
+    <numFmt numFmtId="165" formatCode="#,##0\ _$"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -206,22 +206,22 @@
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyProtection="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyProtection="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -547,8 +547,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D3FDDA7-4CF1-49F3-88AF-140ACB39ADA6}">
   <dimension ref="A1:BS19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -776,7 +776,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2">
-        <v>7529.356580593425</v>
+        <v>7529.3565805934204</v>
       </c>
       <c r="C2" s="2">
         <v>7529.356580593425</v>
@@ -785,205 +785,205 @@
         <v>7529.356580593425</v>
       </c>
       <c r="E2" s="2">
-        <v>32882.505299999997</v>
+        <v>35302</v>
       </c>
       <c r="F2" s="2">
-        <v>33886.559399999998</v>
+        <v>36471</v>
       </c>
       <c r="G2" s="2">
-        <v>35188.6518</v>
+        <v>37987</v>
       </c>
       <c r="H2" s="2">
-        <v>36318.105300000003</v>
+        <v>39302</v>
       </c>
       <c r="I2" s="2">
-        <v>37651.1181</v>
+        <v>40854</v>
       </c>
       <c r="J2" s="2">
-        <v>38875.050600000002</v>
+        <v>42279</v>
       </c>
       <c r="K2" s="2">
-        <v>40365.242100000003</v>
+        <v>44014</v>
       </c>
       <c r="L2" s="2">
-        <v>41760.954599999997</v>
+        <v>45639</v>
       </c>
       <c r="M2" s="2">
-        <v>43251.146099999998</v>
+        <v>47374</v>
       </c>
       <c r="N2" s="2">
-        <v>44756.7978</v>
+        <v>49127</v>
       </c>
       <c r="O2" s="2">
-        <v>46356.928500000002</v>
+        <v>50990</v>
       </c>
       <c r="P2" s="2">
-        <v>48051.538199999995</v>
+        <v>52963</v>
       </c>
       <c r="Q2" s="2">
-        <v>48051.538199999995</v>
+        <v>52963</v>
       </c>
       <c r="R2" s="2">
-        <v>48051.538199999995</v>
+        <v>52963</v>
       </c>
       <c r="S2" s="2">
-        <v>48051.538199999995</v>
+        <v>52963</v>
       </c>
       <c r="T2" s="2">
-        <v>48051.538199999995</v>
+        <v>52963</v>
       </c>
       <c r="U2" s="2">
-        <v>48051.538199999995</v>
+        <v>52963</v>
       </c>
       <c r="V2" s="2">
-        <v>48051.538199999995</v>
+        <v>52963</v>
       </c>
       <c r="W2" s="2">
-        <v>48051.538199999995</v>
+        <v>52963</v>
       </c>
       <c r="X2" s="2">
-        <v>48051.538199999995</v>
+        <v>52963</v>
       </c>
       <c r="Y2" s="2">
-        <v>48051.538199999995</v>
+        <v>52963</v>
       </c>
       <c r="Z2" s="2">
-        <v>48051.538199999995</v>
+        <v>52963</v>
       </c>
       <c r="AA2" s="2">
-        <v>48051.538199999995</v>
+        <v>52963</v>
       </c>
       <c r="AB2" s="2">
-        <v>48051.538199999995</v>
+        <v>52963</v>
       </c>
       <c r="AC2" s="2">
-        <v>48051.538199999995</v>
+        <v>52963</v>
       </c>
       <c r="AD2" s="2">
-        <v>48051.538199999995</v>
+        <v>52963</v>
       </c>
       <c r="AE2" s="2">
-        <v>48051.538199999995</v>
+        <v>52963</v>
       </c>
       <c r="AF2" s="2">
-        <v>48051.538199999995</v>
+        <v>52963</v>
       </c>
       <c r="AG2" s="2">
-        <v>48051.538199999995</v>
+        <v>52963</v>
       </c>
       <c r="AH2" s="2">
-        <v>48051.538199999995</v>
+        <v>52963</v>
       </c>
       <c r="AI2" s="2">
-        <v>48051.538199999995</v>
+        <v>52963</v>
       </c>
       <c r="AJ2" s="2">
-        <v>48051.538199999995</v>
+        <v>52963</v>
       </c>
       <c r="AK2" s="2">
-        <v>48051.538199999995</v>
+        <v>52963</v>
       </c>
       <c r="AL2" s="2">
-        <v>48051.538199999995</v>
+        <v>52963</v>
       </c>
       <c r="AM2" s="2">
-        <v>48051.538199999995</v>
+        <v>52963</v>
       </c>
       <c r="AN2" s="2">
-        <v>48051.538199999995</v>
+        <v>52963</v>
       </c>
       <c r="AO2" s="2">
-        <v>48051.538199999995</v>
+        <v>52963</v>
       </c>
       <c r="AP2" s="2">
-        <v>48051.538199999995</v>
+        <v>52963</v>
       </c>
       <c r="AQ2" s="2">
-        <v>48051.538199999995</v>
+        <v>52963</v>
       </c>
       <c r="AR2" s="2">
-        <v>0</v>
+        <v>41311.14</v>
       </c>
       <c r="AS2" s="2">
-        <v>0</v>
+        <v>41311.14</v>
       </c>
       <c r="AT2" s="2">
-        <v>0</v>
+        <v>41311.14</v>
       </c>
       <c r="AU2" s="2">
-        <v>0</v>
+        <v>41311.14</v>
       </c>
       <c r="AV2" s="2">
-        <v>0</v>
+        <v>41311.14</v>
       </c>
       <c r="AW2" s="2">
-        <v>0</v>
+        <v>28335.205000000002</v>
       </c>
       <c r="AX2" s="2">
-        <v>0</v>
+        <v>28335.205000000002</v>
       </c>
       <c r="AY2" s="2">
-        <v>0</v>
+        <v>28335.205000000002</v>
       </c>
       <c r="AZ2" s="2">
-        <v>0</v>
+        <v>28335.205000000002</v>
       </c>
       <c r="BA2" s="2">
-        <v>0</v>
+        <v>28335.205000000002</v>
       </c>
       <c r="BB2" s="2">
-        <v>0</v>
+        <v>28335.205000000002</v>
       </c>
       <c r="BC2" s="2">
-        <v>0</v>
+        <v>28335.205000000002</v>
       </c>
       <c r="BD2" s="2">
-        <v>0</v>
+        <v>28335.205000000002</v>
       </c>
       <c r="BE2" s="2">
-        <v>0</v>
+        <v>28335.205000000002</v>
       </c>
       <c r="BF2" s="2">
-        <v>0</v>
+        <v>28335.205000000002</v>
       </c>
       <c r="BG2" s="2">
-        <v>0</v>
+        <v>28335.205000000002</v>
       </c>
       <c r="BH2" s="2">
-        <v>0</v>
+        <v>28335.205000000002</v>
       </c>
       <c r="BI2" s="2">
-        <v>0</v>
+        <v>28335.205000000002</v>
       </c>
       <c r="BJ2" s="2">
-        <v>0</v>
+        <v>28335.205000000002</v>
       </c>
       <c r="BK2" s="2">
-        <v>0</v>
+        <v>28335.205000000002</v>
       </c>
       <c r="BL2" s="2">
-        <v>0</v>
+        <v>28335.205000000002</v>
       </c>
       <c r="BM2" s="2">
-        <v>0</v>
+        <v>28335.205000000002</v>
       </c>
       <c r="BN2" s="2">
-        <v>0</v>
+        <v>28335.205000000002</v>
       </c>
       <c r="BO2" s="2">
-        <v>0</v>
+        <v>28335.205000000002</v>
       </c>
       <c r="BP2" s="2">
-        <v>0</v>
+        <v>28335.205000000002</v>
       </c>
       <c r="BQ2" s="2">
-        <v>0</v>
+        <v>28335.205000000002</v>
       </c>
       <c r="BR2" s="2">
-        <v>0</v>
+        <v>28335.205000000002</v>
       </c>
       <c r="BS2" s="3">
-        <v>0</v>
+        <v>28335.205000000002</v>
       </c>
     </row>
     <row r="3" spans="1:71" x14ac:dyDescent="0.25">
@@ -6104,8 +6104,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A59620F8-0C32-4163-9257-4D8A8D1D32B3}">
   <dimension ref="A1:BS26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
